--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179783.6965275043</v>
+        <v>-182351.8968068712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103263</v>
+        <v>10120672.17103262</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>238.3230227037396</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734577</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546494</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885164</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412182</v>
+        <v>14.6558135741218</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.1238632892375</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600979</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3198525186089</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831332</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194083</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155167</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.45592099030193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124323</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6278330773651</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250239</v>
+        <v>225.2165271250238</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7885391902331</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.00372961212435</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.4274347499475</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722035</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218789</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734577</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546494</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885164</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412185</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937173</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600979</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572495</v>
+        <v>145.057512673289</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831332</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5128464477651</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>11.36663801723678</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>107.0916416866341</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.0110364712432</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6278330773651</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250239</v>
+        <v>225.2165271250238</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7885391902331</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532907</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>253.7972548271376</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077919</v>
+        <v>35.29150897077909</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>109.3248594109652</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645407</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123119</v>
+        <v>93.35056828123112</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081564</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917253</v>
+        <v>72.53770982917246</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5247952055346</v>
+        <v>133.9400031873413</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163158</v>
+        <v>92.12955544163151</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692407</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244145</v>
+        <v>22.45616759244137</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265069</v>
+        <v>15.0358998526506</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,16 +2056,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V19" t="n">
-        <v>240.6565984882365</v>
+        <v>178.2413905064313</v>
       </c>
       <c r="W19" t="n">
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2081,22 +2081,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699238</v>
+        <v>52.98619411301155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077919</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X20" t="n">
-        <v>216.6523097638953</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645407</v>
+        <v>168.3509353463469</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123119</v>
+        <v>93.35056828123112</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081564</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9529178109775</v>
+        <v>72.53770982917246</v>
       </c>
       <c r="F22" t="n">
-        <v>71.5247952055346</v>
+        <v>71.52479520553453</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163158</v>
+        <v>92.12955544163151</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692407</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244145</v>
+        <v>22.45616759244138</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265069</v>
+        <v>15.03589985265062</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,7 +2293,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077919</v>
+        <v>35.29150897077912</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U23" t="n">
         <v>177.0989191415053</v>
@@ -2378,10 +2378,10 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000163</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645407</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123119</v>
+        <v>93.35056828123112</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081571</v>
+        <v>74.71922020081564</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9529178109777</v>
+        <v>72.53770982917246</v>
       </c>
       <c r="F25" t="n">
-        <v>71.5247952055346</v>
+        <v>71.52479520553453</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163158</v>
+        <v>92.12955544163151</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692414</v>
+        <v>70.85876209692407</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244145</v>
+        <v>22.45616759244138</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265069</v>
+        <v>15.03589985265062</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2530,16 +2530,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064313</v>
+        <v>240.6565984882378</v>
       </c>
       <c r="W25" t="n">
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124616</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3323,7 +3323,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279767</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433877</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572831</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145486</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2064.473786037836</v>
+        <v>2154.816112015753</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.704315762883</v>
+        <v>1813.046641740801</v>
       </c>
       <c r="D11" t="n">
         <v>1481.973989799509</v>
@@ -5027,7 +5027,7 @@
         <v>1123.378783866724</v>
       </c>
       <c r="F11" t="n">
-        <v>739.585925742575</v>
+        <v>739.5859257425748</v>
       </c>
       <c r="G11" t="n">
         <v>351.7065222530301</v>
@@ -5039,13 +5039,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3167.90494959984</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.268391548465</v>
+        <v>3167.90494959984</v>
       </c>
       <c r="V11" t="n">
-        <v>3099.268391548465</v>
+        <v>2864.035108921727</v>
       </c>
       <c r="W11" t="n">
-        <v>2773.69278294381</v>
+        <v>2864.035108921727</v>
       </c>
       <c r="X11" t="n">
-        <v>2427.420071348189</v>
+        <v>2517.762397326106</v>
       </c>
       <c r="Y11" t="n">
-        <v>2064.473786037836</v>
+        <v>2154.816112015753</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5109,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590.7127755180145</v>
+        <v>480.9665421140526</v>
       </c>
       <c r="C13" t="n">
-        <v>448.9696392555663</v>
+        <v>339.2234058516044</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0460465086893</v>
+        <v>216.2998131047274</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0460465086893</v>
+        <v>216.2998131047274</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0460465086893</v>
+        <v>216.2998131047274</v>
       </c>
       <c r="G13" t="n">
-        <v>185.536256548867</v>
+        <v>216.2998131047274</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>97.27567298804395</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5221,28 +5221,28 @@
         <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1976.016950875306</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1781.443382110291</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.89615132438</v>
+        <v>1519.533561901394</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783951</v>
+        <v>1292.042120360966</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124494</v>
+        <v>1029.817996989464</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798908</v>
+        <v>829.021492756905</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.1681936827955</v>
+        <v>635.4219602788336</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.816112015754</v>
+        <v>1798.242789645729</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.046641740801</v>
+        <v>1798.242789645729</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973989799509</v>
+        <v>1467.170137704436</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378783866723</v>
+        <v>1108.574931771651</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5859257425742</v>
+        <v>724.7820736475021</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7065222530301</v>
+        <v>336.9026701579575</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851405</v>
+        <v>3146.821120658851</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.3860687907</v>
+        <v>2920.483690598146</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.3860687907</v>
+        <v>2616.613849920035</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.3860687907</v>
+        <v>2291.038241315379</v>
       </c>
       <c r="X14" t="n">
-        <v>2837.3860687907</v>
+        <v>1944.765529719758</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.439783480347</v>
+        <v>1798.242789645729</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9665421140518</v>
+        <v>418.3291315370393</v>
       </c>
       <c r="C16" t="n">
-        <v>339.2234058516036</v>
+        <v>418.3291315370393</v>
       </c>
       <c r="D16" t="n">
-        <v>339.2234058516036</v>
+        <v>295.4055387901623</v>
       </c>
       <c r="E16" t="n">
-        <v>218.5033589346692</v>
+        <v>174.6854918732279</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0219063920058</v>
+        <v>174.6854918732279</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159349</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.443382110291</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.533561901393</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.042120360965</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.817996989463</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0214927569042</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4219602788328</v>
+        <v>572.7845497018202</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.332100517922</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.012263191042</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="D17" t="n">
-        <v>1197.389244197823</v>
+        <v>1277.371605912143</v>
       </c>
       <c r="E17" t="n">
-        <v>886.2436712131112</v>
+        <v>966.2260329274311</v>
       </c>
       <c r="F17" t="n">
-        <v>629.882807751356</v>
+        <v>629.8828077513556</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098842</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747553</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.734967634921</v>
+        <v>3111.070035637168</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.734967634921</v>
+        <v>2854.649827907129</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.608991978339</v>
+        <v>2576.523852250547</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.785913330791</v>
+        <v>2277.700773602999</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.289260968511</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,7 +5595,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158131</v>
@@ -5604,34 +5604,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470837</v>
+        <v>632.1605877751708</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327087</v>
+        <v>537.8670844607959</v>
       </c>
       <c r="D19" t="n">
-        <v>399.347460033905</v>
+        <v>462.3931246619923</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650438</v>
+        <v>389.1227106931312</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806654</v>
+        <v>253.8297781806652</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689164</v>
+        <v>160.7696211689162</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030612</v>
+        <v>89.19511400030603</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1795.063565899912</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1647.93963008297</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601704</v>
+        <v>1253.437634229791</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782749</v>
+        <v>1038.663143806362</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937896</v>
+        <v>885.3162725218765</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637914</v>
+        <v>739.1663729918785</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232242</v>
+        <v>1685.894949649502</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1391.575112322622</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912144</v>
+        <v>1107.952093329404</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274316</v>
+        <v>796.8065203446914</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513559</v>
+        <v>460.4632951686159</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098843</v>
+        <v>120.0335246271446</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,52 +5750,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749798</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747553</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.734967634921</v>
+        <v>3146.71802449654</v>
       </c>
       <c r="V20" t="n">
-        <v>2979.734967634921</v>
+        <v>2890.297816766501</v>
       </c>
       <c r="W20" t="n">
-        <v>2701.608991978339</v>
+        <v>2612.171841109919</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045111</v>
+        <v>2313.348762462371</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682832</v>
+        <v>1997.852110100092</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751695</v>
+        <v>569.1149231470831</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607946</v>
+        <v>474.8214198327083</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619908</v>
+        <v>399.3474600339046</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650438</v>
+        <v>326.0770460650435</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806654</v>
+        <v>253.8297781806652</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689164</v>
+        <v>160.7696211689162</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030612</v>
+        <v>89.19511400030603</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5941,19 +5941,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.437634229789</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
         <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218754</v>
+        <v>885.316272521876</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918772</v>
+        <v>739.166372991878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792331</v>
+        <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859983465451</v>
+        <v>1567.85998346545</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472233</v>
+        <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875205</v>
+        <v>973.0913914875196</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114449</v>
+        <v>636.748166311444</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699732</v>
+        <v>296.3183957699731</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
@@ -5996,43 +5996,43 @@
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.46394591607</v>
+        <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.242762974852</v>
+        <v>2127.42091462026</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.215233854189</v>
+        <v>2966.795954943955</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301135</v>
+        <v>3361.570321301133</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056817</v>
+        <v>3609.856683056816</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.87374961362</v>
+        <v>3668.873749613618</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754247</v>
+        <v>3633.225760754245</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752002</v>
+        <v>3501.890692751999</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.00289563937</v>
+        <v>3323.002895639368</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909331</v>
+        <v>3066.582687909329</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252748</v>
+        <v>2788.456712252747</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.6336336052</v>
+        <v>2489.633633605199</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242921</v>
+        <v>2174.136981242919</v>
       </c>
     </row>
     <row r="24">
@@ -6060,16 +6060,16 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073444</v>
+        <v>92.38476659073442</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632369</v>
+        <v>405.3189434632368</v>
       </c>
       <c r="L24" t="n">
         <v>772.0171037759022</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>575.980281707172</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208837</v>
+        <v>481.6867783927972</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220799</v>
+        <v>406.2128185939935</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251328</v>
+        <v>332.9424046251324</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407544</v>
+        <v>260.6951367407542</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290053</v>
+        <v>167.6349797290051</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039508</v>
+        <v>96.06047256039497</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500107439208</v>
+        <v>118.5001074392079</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880844</v>
+        <v>322.4872903880843</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365805</v>
+        <v>639.0470888365804</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361296</v>
+        <v>983.2041344361294</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062408</v>
+        <v>1623.942110062407</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549610496067</v>
@@ -6181,16 +6181,16 @@
         <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789879</v>
+        <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.4828377383631</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819645</v>
+        <v>829.1359664538777</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519663</v>
+        <v>682.9860669238797</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>937.3106675423209</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1388.34488079073</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1921.876785462654</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2468.655602521437</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.628073400774</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982174</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,10 +6412,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6452,7 +6452,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127192</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799117</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.044482857899</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737236</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302711</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,52 +6698,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195689</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075026</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,19 +6856,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481264</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623799</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N35" t="n">
-        <v>2580.208754682581</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O35" t="n">
-        <v>3083.181225561918</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.98316084772</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7020,7 +7020,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K37" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697162</v>
@@ -7160,7 +7160,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,25 +7175,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>907.4660419013969</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1771.984857554752</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226676</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285459</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7202,7 +7202,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805549</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,58 +7397,58 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386886</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.936041136908</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N41" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7549,31 +7549,31 @@
         <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7588,7 +7588,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
         <v>2271.591606277852</v>
@@ -7637,58 +7637,58 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>343.9659746953271</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K44" t="n">
-        <v>677.7853483851736</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L44" t="n">
-        <v>1128.819561633582</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M44" t="n">
-        <v>1662.351466305507</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N44" t="n">
-        <v>2642.103738532154</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.076209411491</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768669</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572252</v>
@@ -7834,13 +7834,13 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297368</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886091</v>
+        <v>164.4450187886094</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592908</v>
+        <v>195.2094266592912</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419192</v>
+        <v>204.9000484419197</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526779</v>
+        <v>196.0014531526784</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740271</v>
+        <v>194.5125490740276</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201056</v>
+        <v>197.1426452201061</v>
       </c>
       <c r="P8" t="n">
-        <v>203.106182456191</v>
+        <v>203.1061824561914</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567228</v>
+        <v>201.1836244567231</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485206</v>
+        <v>116.9502528485207</v>
       </c>
       <c r="K9" t="n">
-        <v>120.942342281416</v>
+        <v>120.9423422814162</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981499</v>
+        <v>115.8314587981502</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072882</v>
+        <v>115.6174569072886</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775608</v>
+        <v>104.1233201775612</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951444</v>
+        <v>117.6967333951448</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175963</v>
+        <v>113.9903546175966</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213391</v>
+        <v>126.6229640213393</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218791</v>
+        <v>121.8405463218793</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274369</v>
+        <v>125.1725778274371</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466755</v>
+        <v>114.2593588466757</v>
       </c>
       <c r="O10" t="n">
-        <v>126.055282941991</v>
+        <v>126.0552829419912</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773784</v>
+        <v>127.1165875773785</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>18.00186702484052</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>339.8005751963212</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>167.7369666428349</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>122.1718867553221</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.1066821161365</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>233.4533865158176</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>19.40311602546484</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>209.1187564935597</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>78.40458911672877</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>137.5908801368513</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40.02214132148748</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>287.0017854473904</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4533865158186</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.68679478748737</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085646</v>
+        <v>15.10714246085647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646765</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>89.4389027181392</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937173</v>
+        <v>82.26664558937169</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>20.87299065157845</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5128464477651</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
         <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103399</v>
+        <v>38.97538322073202</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124317</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.6598075411663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.38529071472905</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6558135741218</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937168</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186089</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>214.2593097839605</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194083</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>107.1332938068904</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>32.01305037359009</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155167</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103399</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124323</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>79.18253809717724</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>203.0168264276916</v>
       </c>
     </row>
     <row r="18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>167.7253174569122</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29150897077912</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>79.18253809717709</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977011.8176773713</v>
+        <v>977011.8176773714</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547415</v>
+        <v>348192.4439547412</v>
       </c>
       <c r="C2" t="n">
         <v>348192.9436000948</v>
       </c>
       <c r="D2" t="n">
-        <v>348199.0609354277</v>
+        <v>348199.0609354278</v>
       </c>
       <c r="E2" t="n">
         <v>310055.2282005047</v>
       </c>
       <c r="F2" t="n">
-        <v>310055.2282005044</v>
+        <v>310055.2282005047</v>
       </c>
       <c r="G2" t="n">
-        <v>337676.0582572609</v>
+        <v>337676.0582572611</v>
       </c>
       <c r="H2" t="n">
-        <v>337676.0582572609</v>
+        <v>337676.0582572612</v>
       </c>
       <c r="I2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923201</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923205</v>
@@ -26350,10 +26350,10 @@
         <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936337</v>
+        <v>38521.85015936275</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015503</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071774</v>
+        <v>22820.53767071759</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049021</v>
+        <v>25410.34822049033</v>
       </c>
       <c r="K3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343056</v>
+        <v>422862.8573343058</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.3098855474</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554738</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.10714400184</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157183</v>
+        <v>86759.13279157181</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409834</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="N4" t="n">
         <v>82806.76150409842</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.2630805892</v>
+        <v>34688.26308058918</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
@@ -26482,34 +26482,34 @@
         <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949904</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949904</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516664</v>
+        <v>85736.39714516661</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121709.0357645067</v>
+        <v>-121713.449342375</v>
       </c>
       <c r="C6" t="n">
-        <v>-124101.2144619589</v>
+        <v>-124105.6251007368</v>
       </c>
       <c r="D6" t="n">
-        <v>-147873.9096388305</v>
+        <v>-147878.2842932823</v>
       </c>
       <c r="E6" t="n">
-        <v>-910925.6145796559</v>
+        <v>-911154.3647207851</v>
       </c>
       <c r="F6" t="n">
-        <v>195290.3464358465</v>
+        <v>195061.5962947182</v>
       </c>
       <c r="G6" t="n">
-        <v>144354.1171788861</v>
+        <v>144287.8425086797</v>
       </c>
       <c r="H6" t="n">
-        <v>181934.2264737602</v>
+        <v>181867.9518035543</v>
       </c>
       <c r="I6" t="n">
-        <v>153626.6845848643</v>
+        <v>153626.6845848645</v>
       </c>
       <c r="J6" t="n">
-        <v>151347.7007929257</v>
+        <v>151347.7007929256</v>
       </c>
       <c r="K6" t="n">
-        <v>176758.0490134159</v>
+        <v>176758.0490134156</v>
       </c>
       <c r="L6" t="n">
         <v>139177.9397185419</v>
       </c>
       <c r="M6" t="n">
-        <v>-30430.51927865695</v>
+        <v>-30430.51927865708</v>
       </c>
       <c r="N6" t="n">
+        <v>176758.0490134158</v>
+      </c>
+      <c r="O6" t="n">
         <v>176758.0490134159</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>176758.049013416</v>
-      </c>
-      <c r="P6" t="n">
-        <v>176758.0490134159</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859252</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859247</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179832</v>
+        <v>48.65426975179759</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26802,13 +26802,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="I4" t="n">
-        <v>917.218437403405</v>
+        <v>917.2184374034046</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855599</v>
+        <v>44.98040685855527</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.1224308415</v>
+        <v>1041.122430841501</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.484241390481748e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111214</v>
+        <v>85.81698200111157</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520942</v>
+        <v>97.11802380520987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>337.4716642661366</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403307</v>
+        <v>202.9352112403308</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128225</v>
+        <v>137.5825701128226</v>
       </c>
       <c r="S8" t="n">
         <v>204.5629472868721</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140268</v>
+        <v>222.2396322140269</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451303</v>
+        <v>85.79346287451308</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805392</v>
+        <v>93.66019412805402</v>
       </c>
       <c r="S9" t="n">
-        <v>169.73929532649</v>
+        <v>169.7392953264901</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880826</v>
+        <v>87.15615952880836</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739134</v>
+        <v>12.07602350739149</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917284</v>
+        <v>78.81524851917295</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723761</v>
+        <v>173.3484074723762</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891985</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739664</v>
+        <v>11.48104483558998</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V19" t="n">
-        <v>11.48104483559155</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739664</v>
+        <v>11.48104483559038</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E22" t="n">
-        <v>11.48104483559169</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="E25" t="n">
-        <v>11.48104483559152</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739664</v>
+        <v>11.48104483559021</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739664</v>
+        <v>73.89625281739671</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859224</v>
       </c>
       <c r="V32" t="n">
         <v>46.97513661859256</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859392</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785861</v>
+        <v>0.1955950542785831</v>
       </c>
       <c r="H8" t="n">
-        <v>2.00313784963057</v>
+        <v>2.00313784963054</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075196</v>
+        <v>7.540678330075083</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807716</v>
+        <v>16.60088573807691</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568971</v>
+        <v>24.88042438568933</v>
       </c>
       <c r="L8" t="n">
-        <v>30.866366528068</v>
+        <v>30.86636652806753</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459479</v>
+        <v>34.34478007459428</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256383</v>
+        <v>34.90051452256331</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158114</v>
+        <v>32.95556620158064</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907855</v>
+        <v>28.12681329907812</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772667</v>
+        <v>21.12206541772636</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832724</v>
+        <v>12.28654782832706</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373284</v>
+        <v>4.457122299373217</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045108</v>
+        <v>0.856217350104498</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228688</v>
+        <v>0.01564760434228665</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208492</v>
+        <v>0.1046525802208476</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711886</v>
+        <v>1.010723603711871</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902046</v>
+        <v>3.603169976901992</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146111</v>
+        <v>9.887373818145962</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294301</v>
+        <v>16.89909669294275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.7229209817243</v>
+        <v>22.72292098172396</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473008</v>
+        <v>26.51657701472968</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577253</v>
+        <v>27.21839190577212</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930003</v>
+        <v>24.89951104929966</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673392</v>
+        <v>19.98405279673362</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468244</v>
+        <v>13.35881006468224</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589219</v>
+        <v>6.497640024589121</v>
       </c>
       <c r="S9" t="n">
-        <v>1.94387577734779</v>
+        <v>1.943875777347761</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971947</v>
+        <v>0.4218233386971884</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424293</v>
+        <v>0.00688503817242419</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914449</v>
+        <v>0.08773720774914318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878489</v>
+        <v>0.7800635379878372</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310637</v>
+        <v>2.638497120310598</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864516</v>
+        <v>6.203020587864422</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849151</v>
+        <v>10.19346831849136</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935918</v>
+        <v>13.04412995935898</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016817</v>
+        <v>13.75320612016796</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855773</v>
+        <v>13.42618561855753</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985181</v>
+        <v>12.40125550985162</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176925</v>
+        <v>10.6114164717691</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521546</v>
+        <v>7.346794732521436</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793351</v>
+        <v>3.944983904793292</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773727</v>
+        <v>1.529020247773704</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827082</v>
+        <v>0.3748771603827026</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226069</v>
+        <v>0.004785665877225997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187032</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35574,7 +35574,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
@@ -35650,7 +35650,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187032</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35811,7 +35811,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36364,16 +36364,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>556.9229828550673</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>847.8535760845404</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>504.9282531982355</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>577.7620011476542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>629.8686683355083</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,13 +37078,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>785.755221928729</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>418.1651022448367</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,13 +37306,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>607.8807427129316</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165969</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,13 +37543,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>474.7821666922518</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>438.7841275408593</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120773</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397226</v>
       </c>
       <c r="M41" t="n">
-        <v>772.3745023460453</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>265.4737957561999</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38026,19 +38026,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637044</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
